--- a/sources/GDP.xlsx
+++ b/sources/GDP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tessa Ridderikhoff\Documents\Programmeerproject\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7004F4CF-4140-4F01-9CC7-25C92A81AB1D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3B9FAC-A1E0-4D1F-B6E6-EE108905BD60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{7C005E50-6162-40D5-819C-390B019BD3F4}"/>
   </bookViews>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:AQ257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
